--- a/biology/Botanique/Sciadopitys/Sciadopitys.xlsx
+++ b/biology/Botanique/Sciadopitys/Sciadopitys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sciadopitys est un genre d'arbres conifères de l'ordre des Cupressales. En classification classique il était classé dans les familles des Cupressaceae ou des Taxodiaceae, mais la classification phylogénétique l'a placé comme unique genre actuel de la famille des Sciadopityaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Sciadopitys est dérivé du grec σκιαδος / skiados, verticille, et πίτυς / pitys, sapin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Sciadopitys est dérivé du grec σκιαδος / skiados, verticille, et πίτυς / pitys, sapin.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La seule espèce encore vivante est Sciadopitys verticillata (Thunb.) Siebold &amp; Zucc., aussi appelée « Pin parasol du Japon ».
-Selon The International Fossil Plant Names Index (IFPNI)                (10 août 2023)[2] :
+Selon The International Fossil Plant Names Index (IFPNI)                (10 août 2023) :
 † Sciadopitys affluens
 † Sciadopitys ambigua
 † Sciadopitys americana
@@ -571,7 +587,7 @@
 † Sciadopitys uralensis
 † Sciadopitys verticillatiformis
 † Sciadopitys yezo-koshizakae
-Selon Palynodata (10 août 2023)[3] :
+Selon Palynodata (10 août 2023) :
 † Sciadopitys affluens
 † Sciadopitys ambiguum
 † Sciadopitys antiqua
